--- a/StandardTemplates/Standard_Cash_Flow.xlsx
+++ b/StandardTemplates/Standard_Cash_Flow.xlsx
@@ -17,13 +17,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <color rgb="00FF0000"/>
     </font>
     <font>
       <b val="1"/>
@@ -49,9 +53,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -419,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,229 +441,239 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Note: The date header (Row 2) supports: '2023 Annual', '2023 Q1', '2023-01'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
           <t>报表项目 (Account Name)</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>经营活动产生的现金流量净额</t>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>2024 Annual</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>2023 Annual</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>2022 Annual</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>销售商品、提供劳务收到的现金</t>
+          <t>经营活动产生的现金流量净额</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>收到的税费返还</t>
+          <t>销售商品、提供劳务收到的现金</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>收到其他与经营活动有关的现金</t>
+          <t>收到的税费返还</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>经营活动现金流入小计</t>
+          <t>收到其他与经营活动有关的现金</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>购买商品、接受劳务支付的现金</t>
+          <t>经营活动现金流入小计</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>支付给职工以及为职工支付的现金</t>
+          <t>购买商品、接受劳务支付的现金</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>支付的各项税费</t>
+          <t>支付给职工以及为职工支付的现金</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>支付其他与经营活动有关的现金</t>
+          <t>支付的各项税费</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>经营活动现金流出小计</t>
+          <t>支付其他与经营活动有关的现金</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>投资活动产生的现金流量净额</t>
+          <t>经营活动现金流出小计</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>收回投资收到的现金</t>
+          <t>投资活动产生的现金流量净额</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>取得投资收益收到的现金</t>
+          <t>收回投资收到的现金</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>处置固定资产、无形资产和其他长期资产收回的现金净额</t>
+          <t>取得投资收益收到的现金</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>投资活动现金流入小计</t>
+          <t>处置固定资产、无形资产和其他长期资产收回的现金净额</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>购建固定资产、无形资产和其他长期资产支付的现金</t>
+          <t>投资活动现金流入小计</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>投资支付的现金</t>
+          <t>购建固定资产、无形资产和其他长期资产支付的现金</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>投资活动现金流出小计</t>
+          <t>投资支付的现金</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>筹资活动产生的现金流量净额</t>
+          <t>投资活动现金流出小计</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>吸收投资收到的现金</t>
+          <t>筹资活动产生的现金流量净额</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>取得借款收到的现金</t>
+          <t>吸收投资收到的现金</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>筹资活动现金流入小计</t>
+          <t>取得借款收到的现金</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>偿还债务支付的现金</t>
+          <t>筹资活动现金流入小计</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>分配股利、利润或偿付利息支付的现金</t>
+          <t>偿还债务支付的现金</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>筹资活动现金流出小计</t>
+          <t>分配股利、利润或偿付利息支付的现金</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>汇率变动对现金及现金等价物的影响</t>
+          <t>筹资活动现金流出小计</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>现金及现金等价物净增加额</t>
+          <t>汇率变动对现金及现金等价物的影响</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>期初现金及现金等价物余额</t>
+          <t>现金及现金等价物净增加额</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>期初现金及现金等价物余额</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>期末现金及现金等价物余额</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>